--- a/biology/Biologie cellulaire et moléculaire/Phage_T7/Phage_T7.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Phage_T7/Phage_T7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bactériophage T7 est un virus qui infecte E. coli[1]. Les études sur ce virus ont permis des développements en biologie moléculaire et de mieux comprendre l'assemblage et l'infection virale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bactériophage T7 est un virus qui infecte E. coli. Les études sur ce virus ont permis des développements en biologie moléculaire et de mieux comprendre l'assemblage et l'infection virale.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractérisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">T7 appartient à la famille des Podoviridae (virion avec une petite queue non-contractile), c'est un virus strictement lytique (type I).
 T7 a un génome de 40 kpb contenu dans une capside icosaédrique de 600 Å de diamètre. La capside contient également des protéines qui sont injectées dans la bactérie hôte lors de l'infection.
@@ -543,10 +557,12 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La polymérase du phage T7 est très utilisée en biologie moléculaire.
-Le phage T7 peut être utilisé pour réaliser du phage display[2].
+Le phage T7 peut être utilisé pour réaliser du phage display.
 </t>
         </is>
       </c>
